--- a/app/planilhas/Total-ceo-d.xlsx
+++ b/app/planilhas/Total-ceo-d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D_Muniz\Desktop\RefactorTeethGram\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D_Muniz\Desktop\Projeto\teethGram\app\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8B5084-A941-4BB8-A75E-A976D78D70C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2832771F-5DF4-49EC-B102-F18D2A0E05F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AFFBEBE6-A6BC-498C-A820-BBF450B005CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AFFBEBE6-A6BC-498C-A820-BBF450B005CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>TOTAL Participantes</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL </t>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,6 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,12 +500,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="3">
         <v>55</v>
       </c>
@@ -595,9 +602,9 @@
       <c r="AZ1" s="1"/>
       <c r="BA1" s="1"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="5"/>
@@ -620,7 +627,7 @@
       <c r="T2" s="5"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -645,7 +652,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
